--- a/TMT_fmri/TMTstop-control_1_merged.xlsx
+++ b/TMT_fmri/TMTstop-control_1_merged.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunduniversityo365-my.sharepoint.com/personal/em5456ol-s_lu_se/Documents/Experiment paradigms/TMT_PsychoPY_new/TMT_fmri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="539" documentId="13_ncr:1_{ED9D02F7-1230-44A2-A7DC-15FEAC8DD2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45CE3EEC-29C3-4C0B-B7F5-A4FB9E1681A4}"/>
+  <xr:revisionPtr revIDLastSave="752" documentId="13_ncr:1_{ED9D02F7-1230-44A2-A7DC-15FEAC8DD2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68970D09-7BAC-45C7-B56E-9C7889186111}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5484" yWindow="900" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="603">
   <si>
     <t>StimFile</t>
   </si>
@@ -49,15 +49,6 @@
   </si>
   <si>
     <t>NumberLetter</t>
-  </si>
-  <si>
-    <t>['1']</t>
-  </si>
-  <si>
-    <t>['2']</t>
-  </si>
-  <si>
-    <t>['3']</t>
   </si>
   <si>
     <t>TMTstop-control_1_1.png</t>
@@ -2172,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2193,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2205,36 +2196,37 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="I1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2" t="str">
+        <f>"['"&amp;C2&amp;"']"</f>
+        <v>['2']</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -2247,23 +2239,24 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="0">"['"&amp;C3&amp;"']"</f>
+        <v>['1']</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2276,23 +2269,24 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2305,23 +2299,24 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>['1']</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2334,23 +2329,24 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2363,23 +2359,24 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>['1']</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -2392,23 +2389,24 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -2421,23 +2419,24 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>['1']</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -2450,23 +2449,24 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -2479,23 +2479,24 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2508,23 +2509,24 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>['1']</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2537,23 +2539,24 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2566,23 +2569,24 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2595,23 +2599,24 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2624,23 +2629,24 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2653,23 +2659,24 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2682,23 +2689,24 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2711,23 +2719,24 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2740,23 +2749,24 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>['1']</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2769,23 +2779,24 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2798,23 +2809,24 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>['1']</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2827,23 +2839,24 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G23" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2856,23 +2869,24 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2885,23 +2899,24 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2914,23 +2929,24 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>['1']</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2941,45 +2957,46 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2992,23 +3009,24 @@
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29" t="s">
-        <v>7</v>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3021,23 +3039,24 @@
       <c r="A30">
         <v>3</v>
       </c>
-      <c r="B30" t="s">
-        <v>6</v>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3050,23 +3069,24 @@
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3079,23 +3099,24 @@
       <c r="A32">
         <v>5</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3108,23 +3129,24 @@
       <c r="A33">
         <v>6</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3137,23 +3159,24 @@
       <c r="A34">
         <v>7</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G34" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3166,23 +3189,24 @@
       <c r="A35">
         <v>8</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>['1']</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
         <v>97</v>
       </c>
-      <c r="E35" t="s">
-        <v>100</v>
-      </c>
       <c r="F35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G35" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3195,23 +3219,24 @@
       <c r="A36">
         <v>9</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G36" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3224,23 +3249,24 @@
       <c r="A37">
         <v>10</v>
       </c>
-      <c r="B37" t="s">
-        <v>7</v>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G37" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3253,23 +3279,24 @@
       <c r="A38">
         <v>11</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G38" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3282,23 +3309,24 @@
       <c r="A39">
         <v>12</v>
       </c>
-      <c r="B39" t="s">
-        <v>6</v>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G39" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3311,23 +3339,24 @@
       <c r="A40">
         <v>13</v>
       </c>
-      <c r="B40" t="s">
-        <v>7</v>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G40" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -3340,23 +3369,24 @@
       <c r="A41">
         <v>14</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G41" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -3369,23 +3399,24 @@
       <c r="A42">
         <v>15</v>
       </c>
-      <c r="B42" t="s">
-        <v>6</v>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E42" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G42" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -3398,23 +3429,24 @@
       <c r="A43">
         <v>16</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>['1']</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G43" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -3427,23 +3459,24 @@
       <c r="A44">
         <v>17</v>
       </c>
-      <c r="B44" t="s">
-        <v>6</v>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G44" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -3456,23 +3489,24 @@
       <c r="A45">
         <v>18</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>['1']</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F45" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G45" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -3485,23 +3519,24 @@
       <c r="A46">
         <v>19</v>
       </c>
-      <c r="B46" t="s">
-        <v>7</v>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F46" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G46" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -3514,23 +3549,24 @@
       <c r="A47">
         <v>20</v>
       </c>
-      <c r="B47" t="s">
-        <v>5</v>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G47" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -3543,23 +3579,24 @@
       <c r="A48">
         <v>21</v>
       </c>
-      <c r="B48" t="s">
-        <v>6</v>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>['1']</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E48" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F48" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G48" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -3572,23 +3609,24 @@
       <c r="A49">
         <v>22</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F49" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G49" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -3601,23 +3639,24 @@
       <c r="A50">
         <v>23</v>
       </c>
-      <c r="B50" t="s">
-        <v>7</v>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E50" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F50" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G50" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -3630,23 +3669,24 @@
       <c r="A51">
         <v>24</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G51" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -3659,23 +3699,24 @@
       <c r="A52">
         <v>25</v>
       </c>
-      <c r="B52" t="s">
-        <v>7</v>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>['1']</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E52" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F52" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G52" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -3686,45 +3727,46 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F53" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G53" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H53">
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
-      <c r="B54" t="s">
-        <v>7</v>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E54" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F54" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G54" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -3737,23 +3779,24 @@
       <c r="A55">
         <v>2</v>
       </c>
-      <c r="B55" t="s">
-        <v>5</v>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>['1']</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F55" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G55" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -3766,23 +3809,24 @@
       <c r="A56">
         <v>3</v>
       </c>
-      <c r="B56" t="s">
-        <v>7</v>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E56" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F56" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G56" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -3795,23 +3839,24 @@
       <c r="A57">
         <v>4</v>
       </c>
-      <c r="B57" t="s">
-        <v>5</v>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>['1']</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E57" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F57" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G57" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -3824,23 +3869,24 @@
       <c r="A58">
         <v>5</v>
       </c>
-      <c r="B58" t="s">
-        <v>7</v>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E58" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F58" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G58" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -3853,23 +3899,24 @@
       <c r="A59">
         <v>6</v>
       </c>
-      <c r="B59" t="s">
-        <v>6</v>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>['1']</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E59" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F59" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G59" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -3882,23 +3929,24 @@
       <c r="A60">
         <v>7</v>
       </c>
-      <c r="B60" t="s">
-        <v>5</v>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E60" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F60" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G60" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -3911,23 +3959,24 @@
       <c r="A61">
         <v>8</v>
       </c>
-      <c r="B61" t="s">
-        <v>7</v>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
       <c r="D61" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61" t="s">
         <v>171</v>
       </c>
-      <c r="E61" t="s">
-        <v>174</v>
-      </c>
       <c r="F61" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G61" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -3940,23 +3989,24 @@
       <c r="A62">
         <v>9</v>
       </c>
-      <c r="B62" t="s">
-        <v>6</v>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>['1']</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E62" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F62" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G62" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -3969,23 +4019,24 @@
       <c r="A63">
         <v>10</v>
       </c>
-      <c r="B63" t="s">
-        <v>7</v>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E63" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F63" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G63" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -3998,23 +4049,24 @@
       <c r="A64">
         <v>11</v>
       </c>
-      <c r="B64" t="s">
-        <v>6</v>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>['1']</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E64" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F64" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G64" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -4027,23 +4079,24 @@
       <c r="A65">
         <v>12</v>
       </c>
-      <c r="B65" t="s">
-        <v>5</v>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>['2']</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E65" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F65" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G65" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -4056,23 +4109,24 @@
       <c r="A66">
         <v>13</v>
       </c>
-      <c r="B66" t="s">
-        <v>6</v>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>['3']</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E66" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F66" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G66" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -4085,23 +4139,24 @@
       <c r="A67">
         <v>14</v>
       </c>
-      <c r="B67" t="s">
-        <v>7</v>
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B130" si="1">"['"&amp;C67&amp;"']"</f>
+        <v>['2']</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E67" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F67" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G67" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -4114,23 +4169,24 @@
       <c r="A68">
         <v>15</v>
       </c>
-      <c r="B68" t="s">
-        <v>6</v>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E68" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F68" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G68" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -4143,23 +4199,24 @@
       <c r="A69">
         <v>16</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>['3']</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F69" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G69" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -4172,23 +4229,24 @@
       <c r="A70">
         <v>17</v>
       </c>
-      <c r="B70" t="s">
-        <v>6</v>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E70" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F70" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G70" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -4201,23 +4259,24 @@
       <c r="A71">
         <v>18</v>
       </c>
-      <c r="B71" t="s">
-        <v>7</v>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>['3']</v>
       </c>
       <c r="C71">
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E71" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F71" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G71" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -4230,23 +4289,24 @@
       <c r="A72">
         <v>19</v>
       </c>
-      <c r="B72" t="s">
-        <v>5</v>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>['2']</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E72" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F72" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G72" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -4259,23 +4319,24 @@
       <c r="A73">
         <v>20</v>
       </c>
-      <c r="B73" t="s">
-        <v>6</v>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E73" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F73" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G73" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -4288,23 +4349,24 @@
       <c r="A74">
         <v>21</v>
       </c>
-      <c r="B74" t="s">
-        <v>7</v>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>['3']</v>
       </c>
       <c r="C74">
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E74" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F74" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G74" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -4317,23 +4379,24 @@
       <c r="A75">
         <v>22</v>
       </c>
-      <c r="B75" t="s">
-        <v>6</v>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>['2']</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E75" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F75" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G75" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H75">
         <v>3</v>
@@ -4346,23 +4409,24 @@
       <c r="A76">
         <v>23</v>
       </c>
-      <c r="B76" t="s">
-        <v>5</v>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>['3']</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E76" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F76" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G76" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -4375,23 +4439,24 @@
       <c r="A77">
         <v>24</v>
       </c>
-      <c r="B77" t="s">
-        <v>7</v>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E77" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F77" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G77" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -4404,23 +4469,24 @@
       <c r="A78">
         <v>25</v>
       </c>
-      <c r="B78" t="s">
-        <v>5</v>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>['2']</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E78" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F78" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G78" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -4431,45 +4497,46 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E79" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F79" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G79" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H79">
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1</v>
       </c>
-      <c r="B80" t="s">
-        <v>6</v>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>['2']</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E80" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F80" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G80" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -4482,23 +4549,24 @@
       <c r="A81">
         <v>2</v>
       </c>
-      <c r="B81" t="s">
-        <v>5</v>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E81" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F81" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G81" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H81">
         <v>4</v>
@@ -4511,23 +4579,24 @@
       <c r="A82">
         <v>3</v>
       </c>
-      <c r="B82" t="s">
-        <v>7</v>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>['3']</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E82" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F82" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G82" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H82">
         <v>4</v>
@@ -4540,23 +4609,24 @@
       <c r="A83">
         <v>4</v>
       </c>
-      <c r="B83" t="s">
-        <v>5</v>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E83" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F83" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G83" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -4569,23 +4639,24 @@
       <c r="A84">
         <v>5</v>
       </c>
-      <c r="B84" t="s">
-        <v>6</v>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>['3']</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E84" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F84" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G84" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H84">
         <v>4</v>
@@ -4598,23 +4669,24 @@
       <c r="A85">
         <v>6</v>
       </c>
-      <c r="B85" t="s">
-        <v>5</v>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E85" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F85" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G85" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -4627,23 +4699,24 @@
       <c r="A86">
         <v>7</v>
       </c>
-      <c r="B86" t="s">
-        <v>7</v>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>['3']</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E86" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F86" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G86" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H86">
         <v>4</v>
@@ -4656,23 +4729,24 @@
       <c r="A87">
         <v>8</v>
       </c>
-      <c r="B87" t="s">
-        <v>5</v>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" t="s">
+        <v>242</v>
+      </c>
+      <c r="E87" t="s">
         <v>245</v>
       </c>
-      <c r="E87" t="s">
-        <v>248</v>
-      </c>
       <c r="F87" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G87" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H87">
         <v>4</v>
@@ -4685,23 +4759,24 @@
       <c r="A88">
         <v>9</v>
       </c>
-      <c r="B88" t="s">
-        <v>6</v>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>['3']</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E88" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F88" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G88" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H88">
         <v>4</v>
@@ -4714,23 +4789,24 @@
       <c r="A89">
         <v>10</v>
       </c>
-      <c r="B89" t="s">
-        <v>5</v>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>['2']</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E89" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F89" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G89" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H89">
         <v>4</v>
@@ -4743,23 +4819,24 @@
       <c r="A90">
         <v>11</v>
       </c>
-      <c r="B90" t="s">
-        <v>6</v>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E90" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F90" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G90" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H90">
         <v>4</v>
@@ -4772,23 +4849,24 @@
       <c r="A91">
         <v>12</v>
       </c>
-      <c r="B91" t="s">
-        <v>5</v>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>['3']</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E91" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F91" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G91" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H91">
         <v>4</v>
@@ -4801,23 +4879,24 @@
       <c r="A92">
         <v>13</v>
       </c>
-      <c r="B92" t="s">
-        <v>6</v>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>['2']</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E92" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F92" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G92" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H92">
         <v>4</v>
@@ -4830,23 +4909,24 @@
       <c r="A93">
         <v>14</v>
       </c>
-      <c r="B93" t="s">
-        <v>5</v>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>['3']</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E93" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F93" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G93" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H93">
         <v>4</v>
@@ -4859,23 +4939,24 @@
       <c r="A94">
         <v>15</v>
       </c>
-      <c r="B94" t="s">
-        <v>6</v>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>['2']</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E94" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F94" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G94" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -4888,23 +4969,24 @@
       <c r="A95">
         <v>16</v>
       </c>
-      <c r="B95" t="s">
-        <v>7</v>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E95" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F95" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G95" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H95">
         <v>4</v>
@@ -4917,23 +4999,24 @@
       <c r="A96">
         <v>17</v>
       </c>
-      <c r="B96" t="s">
-        <v>6</v>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>['3']</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E96" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F96" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G96" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -4946,23 +5029,24 @@
       <c r="A97">
         <v>18</v>
       </c>
-      <c r="B97" t="s">
-        <v>7</v>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E97" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F97" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G97" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H97">
         <v>4</v>
@@ -4975,23 +5059,24 @@
       <c r="A98">
         <v>19</v>
       </c>
-      <c r="B98" t="s">
-        <v>5</v>
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>['2']</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E98" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F98" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G98" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -5004,23 +5089,24 @@
       <c r="A99">
         <v>20</v>
       </c>
-      <c r="B99" t="s">
-        <v>7</v>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E99" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F99" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G99" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H99">
         <v>4</v>
@@ -5033,23 +5119,24 @@
       <c r="A100">
         <v>21</v>
       </c>
-      <c r="B100" t="s">
-        <v>6</v>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>['2']</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E100" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F100" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G100" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H100">
         <v>4</v>
@@ -5062,23 +5149,24 @@
       <c r="A101">
         <v>22</v>
       </c>
-      <c r="B101" t="s">
-        <v>7</v>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E101" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F101" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G101" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H101">
         <v>4</v>
@@ -5091,23 +5179,24 @@
       <c r="A102">
         <v>23</v>
       </c>
-      <c r="B102" t="s">
-        <v>6</v>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>['2']</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E102" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F102" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G102" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H102">
         <v>4</v>
@@ -5120,23 +5209,24 @@
       <c r="A103">
         <v>24</v>
       </c>
-      <c r="B103" t="s">
-        <v>5</v>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E103" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F103" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G103" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H103">
         <v>4</v>
@@ -5149,23 +5239,24 @@
       <c r="A104">
         <v>25</v>
       </c>
-      <c r="B104" t="s">
-        <v>7</v>
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>['2']</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E104" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F104" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G104" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -5176,22 +5267,22 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E105" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F105" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G105" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H105">
         <v>4</v>
       </c>
       <c r="I105" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -5199,23 +5290,23 @@
         <v>1</v>
       </c>
       <c r="B106" t="str">
-        <f>"['"&amp;C106&amp;"']"</f>
-        <v>['1']</v>
+        <f t="shared" si="1"/>
+        <v>['3']</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D106" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E106" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F106" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G106" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -5229,23 +5320,23 @@
         <v>2</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" ref="B107:B170" si="0">"['"&amp;C107&amp;"']"</f>
+        <f t="shared" si="1"/>
         <v>['2']</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E107" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F107" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G107" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H107">
         <v>5</v>
@@ -5259,23 +5350,23 @@
         <v>3</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="0"/>
-        <v>['3']</v>
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E108" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F108" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G108" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H108">
         <v>5</v>
@@ -5289,23 +5380,23 @@
         <v>4</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="0"/>
-        <v>['1']</v>
+        <f t="shared" si="1"/>
+        <v>['3']</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E109" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F109" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G109" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H109">
         <v>5</v>
@@ -5319,23 +5410,23 @@
         <v>5</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="0"/>
-        <v>['2']</v>
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E110" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F110" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G110" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H110">
         <v>5</v>
@@ -5349,23 +5440,23 @@
         <v>6</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="0"/>
-        <v>['3']</v>
+        <f t="shared" si="1"/>
+        <v>['2']</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E111" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F111" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G111" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H111">
         <v>5</v>
@@ -5379,23 +5470,23 @@
         <v>7</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="0"/>
-        <v>['2']</v>
+        <f t="shared" si="1"/>
+        <v>['3']</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E112" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F112" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G112" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H112">
         <v>5</v>
@@ -5409,23 +5500,23 @@
         <v>8</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="0"/>
-        <v>['3']</v>
+        <f t="shared" si="1"/>
+        <v>['2']</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D113" t="s">
+        <v>317</v>
+      </c>
+      <c r="E113" t="s">
         <v>320</v>
       </c>
-      <c r="E113" t="s">
-        <v>323</v>
-      </c>
       <c r="F113" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G113" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H113">
         <v>5</v>
@@ -5439,23 +5530,23 @@
         <v>9</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="0"/>
-        <v>['2']</v>
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E114" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F114" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G114" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H114">
         <v>5</v>
@@ -5469,23 +5560,23 @@
         <v>10</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="0"/>
-        <v>['3']</v>
+        <f t="shared" si="1"/>
+        <v>['2']</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E115" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F115" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G115" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H115">
         <v>5</v>
@@ -5499,23 +5590,23 @@
         <v>11</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>['1']</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E116" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F116" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G116" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H116">
         <v>5</v>
@@ -5529,23 +5620,23 @@
         <v>12</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="0"/>
-        <v>['2']</v>
+        <f t="shared" si="1"/>
+        <v>['3']</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D117" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E117" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F117" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G117" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H117">
         <v>5</v>
@@ -5559,23 +5650,23 @@
         <v>13</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="0"/>
-        <v>['1']</v>
+        <f t="shared" si="1"/>
+        <v>['2']</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E118" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F118" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G118" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H118">
         <v>5</v>
@@ -5589,23 +5680,23 @@
         <v>14</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="0"/>
-        <v>['2']</v>
+        <f t="shared" si="1"/>
+        <v>['3']</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E119" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F119" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G119" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H119">
         <v>5</v>
@@ -5619,23 +5710,23 @@
         <v>15</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>['1']</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E120" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F120" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G120" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H120">
         <v>5</v>
@@ -5649,23 +5740,23 @@
         <v>16</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="0"/>
-        <v>['3']</v>
+        <f t="shared" si="1"/>
+        <v>['2']</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E121" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F121" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G121" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H121">
         <v>5</v>
@@ -5679,23 +5770,23 @@
         <v>17</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="0"/>
-        <v>['2']</v>
+        <f t="shared" si="1"/>
+        <v>['3']</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E122" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F122" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G122" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H122">
         <v>5</v>
@@ -5709,23 +5800,23 @@
         <v>18</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>['1']</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E123" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F123" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G123" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H123">
         <v>5</v>
@@ -5739,23 +5830,23 @@
         <v>19</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="0"/>
-        <v>['3']</v>
+        <f t="shared" si="1"/>
+        <v>['2']</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E124" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F124" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G124" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H124">
         <v>5</v>
@@ -5769,23 +5860,23 @@
         <v>20</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="0"/>
-        <v>['2']</v>
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E125" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F125" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G125" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H125">
         <v>5</v>
@@ -5799,23 +5890,23 @@
         <v>21</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="0"/>
-        <v>['3']</v>
+        <f t="shared" si="1"/>
+        <v>['2']</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E126" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F126" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G126" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H126">
         <v>5</v>
@@ -5829,23 +5920,23 @@
         <v>22</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="0"/>
-        <v>['2']</v>
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E127" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F127" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G127" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H127">
         <v>5</v>
@@ -5859,23 +5950,23 @@
         <v>23</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>['3']</v>
       </c>
       <c r="C128">
         <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E128" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F128" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G128" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H128">
         <v>5</v>
@@ -5889,23 +5980,23 @@
         <v>24</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="0"/>
-        <v>['2']</v>
+        <f t="shared" si="1"/>
+        <v>['1']</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E129" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F129" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G129" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H129">
         <v>5</v>
@@ -5919,23 +6010,23 @@
         <v>25</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>['3']</v>
       </c>
       <c r="C130">
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E130" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F130" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G130" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H130">
         <v>5</v>
@@ -5946,22 +6037,22 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E131" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F131" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G131" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H131">
         <v>5</v>
       </c>
       <c r="I131" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -5969,23 +6060,23 @@
         <v>1</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="0"/>
-        <v>['1']</v>
+        <f t="shared" ref="B131:B194" si="2">"['"&amp;C132&amp;"']"</f>
+        <v>['3']</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D132" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E132" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F132" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G132" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H132">
         <v>6</v>
@@ -5999,23 +6090,23 @@
         <v>2</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="0"/>
-        <v>['3']</v>
+        <f t="shared" si="2"/>
+        <v>['2']</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E133" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F133" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G133" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H133">
         <v>6</v>
@@ -6029,23 +6120,23 @@
         <v>3</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="0"/>
-        <v>['2']</v>
+        <f t="shared" si="2"/>
+        <v>['1']</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E134" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F134" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G134" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H134">
         <v>6</v>
@@ -6059,23 +6150,23 @@
         <v>4</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="0"/>
-        <v>['1']</v>
+        <f t="shared" si="2"/>
+        <v>['2']</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E135" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F135" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G135" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H135">
         <v>6</v>
@@ -6089,23 +6180,23 @@
         <v>5</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>['3']</v>
       </c>
       <c r="C136">
         <v>3</v>
       </c>
       <c r="D136" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E136" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F136" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G136" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H136">
         <v>6</v>
@@ -6119,23 +6210,23 @@
         <v>6</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>['2']</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E137" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F137" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G137" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H137">
         <v>6</v>
@@ -6149,23 +6240,23 @@
         <v>7</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>['1']</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E138" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F138" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G138" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H138">
         <v>6</v>
@@ -6179,23 +6270,23 @@
         <v>8</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="0"/>
-        <v>['2']</v>
+        <f t="shared" si="2"/>
+        <v>['3']</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D139" t="s">
+        <v>391</v>
+      </c>
+      <c r="E139" t="s">
         <v>394</v>
       </c>
-      <c r="E139" t="s">
-        <v>397</v>
-      </c>
       <c r="F139" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G139" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H139">
         <v>6</v>
@@ -6209,23 +6300,23 @@
         <v>9</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="0"/>
-        <v>['3']</v>
+        <f t="shared" si="2"/>
+        <v>['2']</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E140" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F140" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G140" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H140">
         <v>6</v>
@@ -6239,23 +6330,23 @@
         <v>10</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>['1']</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E141" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F141" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G141" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H141">
         <v>6</v>
@@ -6269,23 +6360,23 @@
         <v>11</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="0"/>
-        <v>['3']</v>
+        <f t="shared" si="2"/>
+        <v>['2']</v>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D142" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E142" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F142" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G142" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H142">
         <v>6</v>
@@ -6299,23 +6390,23 @@
         <v>12</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="0"/>
-        <v>['1']</v>
+        <f t="shared" si="2"/>
+        <v>['3']</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D143" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E143" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F143" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G143" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H143">
         <v>6</v>
@@ -6329,23 +6420,23 @@
         <v>13</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="0"/>
-        <v>['3']</v>
+        <f t="shared" si="2"/>
+        <v>['1']</v>
       </c>
       <c r="C144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E144" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F144" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G144" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H144">
         <v>6</v>
@@ -6359,23 +6450,23 @@
         <v>14</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="0"/>
-        <v>['1']</v>
+        <f t="shared" si="2"/>
+        <v>['3']</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E145" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F145" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G145" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H145">
         <v>6</v>
@@ -6389,23 +6480,23 @@
         <v>15</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="0"/>
-        <v>['3']</v>
+        <f t="shared" si="2"/>
+        <v>['2']</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D146" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E146" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F146" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G146" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H146">
         <v>6</v>
@@ -6419,23 +6510,23 @@
         <v>16</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="0"/>
-        <v>['1']</v>
+        <f t="shared" si="2"/>
+        <v>['3']</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D147" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E147" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F147" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G147" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H147">
         <v>6</v>
@@ -6449,23 +6540,23 @@
         <v>17</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="0"/>
-        <v>['2']</v>
+        <f t="shared" si="2"/>
+        <v>['1']</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E148" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F148" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G148" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H148">
         <v>6</v>
@@ -6479,23 +6570,23 @@
         <v>18</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="0"/>
-        <v>['1']</v>
+        <f t="shared" si="2"/>
+        <v>['2']</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E149" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F149" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G149" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H149">
         <v>6</v>
@@ -6509,23 +6600,23 @@
         <v>19</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>['3']</v>
       </c>
       <c r="C150">
         <v>3</v>
       </c>
       <c r="D150" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E150" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F150" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G150" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H150">
         <v>6</v>
@@ -6539,23 +6630,23 @@
         <v>20</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="0"/>
-        <v>['1']</v>
+        <f t="shared" si="2"/>
+        <v>['2']</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E151" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F151" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G151" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H151">
         <v>6</v>
@@ -6569,23 +6660,23 @@
         <v>21</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="0"/>
-        <v>['3']</v>
+        <f t="shared" si="2"/>
+        <v>['1']</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E152" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F152" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G152" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H152">
         <v>6</v>
@@ -6599,23 +6690,23 @@
         <v>22</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="0"/>
-        <v>['1']</v>
+        <f t="shared" si="2"/>
+        <v>['2']</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E153" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F153" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G153" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H153">
         <v>6</v>
@@ -6629,23 +6720,23 @@
         <v>23</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="0"/>
-        <v>['3']</v>
+        <f t="shared" si="2"/>
+        <v>['1']</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E154" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F154" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G154" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H154">
         <v>6</v>
@@ -6659,23 +6750,23 @@
         <v>24</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>['2']</v>
       </c>
       <c r="C155">
         <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E155" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F155" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G155" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H155">
         <v>6</v>
@@ -6689,23 +6780,23 @@
         <v>25</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="0"/>
-        <v>['1']</v>
+        <f t="shared" si="2"/>
+        <v>['3']</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D156" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E156" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F156" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G156" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H156">
         <v>6</v>
@@ -6716,22 +6807,22 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D157" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E157" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F157" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G157" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H157">
         <v>6</v>
       </c>
       <c r="I157" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -6739,23 +6830,23 @@
         <v>1</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>['1']</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E158" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F158" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G158" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H158">
         <v>7</v>
@@ -6769,23 +6860,23 @@
         <v>2</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>['2']</v>
       </c>
       <c r="C159" s="1">
         <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E159" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F159" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G159" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H159">
         <v>7</v>
@@ -6799,23 +6890,23 @@
         <v>3</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>['3']</v>
       </c>
       <c r="C160" s="1">
         <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E160" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F160" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G160" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H160">
         <v>7</v>
@@ -6829,23 +6920,23 @@
         <v>4</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>['2']</v>
       </c>
       <c r="C161">
         <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E161" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F161" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G161" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H161">
         <v>7</v>
@@ -6859,23 +6950,23 @@
         <v>5</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>['3']</v>
       </c>
       <c r="C162">
         <v>3</v>
       </c>
       <c r="D162" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E162" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F162" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G162" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H162">
         <v>7</v>
@@ -6889,23 +6980,23 @@
         <v>6</v>
       </c>
       <c r="B163" t="str">
-        <f t="shared" si="0"/>
-        <v>['2']</v>
+        <f t="shared" si="2"/>
+        <v>['1']</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E163" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F163" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G163" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H163">
         <v>7</v>
@@ -6919,23 +7010,23 @@
         <v>7</v>
       </c>
       <c r="B164" t="str">
-        <f t="shared" si="0"/>
-        <v>['1']</v>
+        <f t="shared" si="2"/>
+        <v>['3']</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D164" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E164" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F164" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G164" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H164">
         <v>7</v>
@@ -6949,23 +7040,23 @@
         <v>8</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" si="0"/>
-        <v>['3']</v>
+        <f t="shared" si="2"/>
+        <v>['2']</v>
       </c>
       <c r="C165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D165" t="s">
+        <v>465</v>
+      </c>
+      <c r="E165" t="s">
         <v>468</v>
       </c>
-      <c r="E165" t="s">
-        <v>471</v>
-      </c>
       <c r="F165" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G165" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H165">
         <v>7</v>
@@ -6979,23 +7070,23 @@
         <v>9</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" si="0"/>
-        <v>['2']</v>
+        <f t="shared" si="2"/>
+        <v>['3']</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D166" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E166" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F166" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G166" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H166">
         <v>7</v>
@@ -7009,23 +7100,23 @@
         <v>10</v>
       </c>
       <c r="B167" t="str">
-        <f t="shared" si="0"/>
-        <v>['3']</v>
+        <f t="shared" si="2"/>
+        <v>['2']</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E167" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F167" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G167" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H167">
         <v>7</v>
@@ -7039,23 +7130,23 @@
         <v>11</v>
       </c>
       <c r="B168" t="str">
-        <f t="shared" si="0"/>
-        <v>['2']</v>
+        <f t="shared" si="2"/>
+        <v>['1']</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E168" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F168" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G168" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H168">
         <v>7</v>
@@ -7069,23 +7160,23 @@
         <v>12</v>
       </c>
       <c r="B169" t="str">
-        <f t="shared" si="0"/>
-        <v>['1']</v>
+        <f t="shared" si="2"/>
+        <v>['2']</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E169" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F169" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G169" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H169">
         <v>7</v>
@@ -7099,23 +7190,23 @@
         <v>13</v>
       </c>
       <c r="B170" t="str">
-        <f t="shared" si="0"/>
-        <v>['2']</v>
+        <f t="shared" si="2"/>
+        <v>['3']</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D170" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E170" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F170" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G170" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H170">
         <v>7</v>
@@ -7129,23 +7220,23 @@
         <v>14</v>
       </c>
       <c r="B171" t="str">
-        <f t="shared" ref="B171:B208" si="1">"['"&amp;C171&amp;"']"</f>
-        <v>['3']</v>
+        <f t="shared" si="2"/>
+        <v>['1']</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E171" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F171" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G171" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H171">
         <v>7</v>
@@ -7159,23 +7250,23 @@
         <v>15</v>
       </c>
       <c r="B172" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>['2']</v>
       </c>
       <c r="C172">
         <v>2</v>
       </c>
       <c r="D172" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E172" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F172" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G172" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H172">
         <v>7</v>
@@ -7189,23 +7280,23 @@
         <v>16</v>
       </c>
       <c r="B173" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>['3']</v>
       </c>
       <c r="C173">
         <v>3</v>
       </c>
       <c r="D173" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E173" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F173" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G173" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H173">
         <v>7</v>
@@ -7219,23 +7310,23 @@
         <v>17</v>
       </c>
       <c r="B174" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>['1']</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E174" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F174" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G174" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H174">
         <v>7</v>
@@ -7249,23 +7340,23 @@
         <v>18</v>
       </c>
       <c r="B175" t="str">
-        <f t="shared" si="1"/>
-        <v>['3']</v>
+        <f t="shared" si="2"/>
+        <v>['2']</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D175" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E175" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F175" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G175" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H175">
         <v>7</v>
@@ -7279,23 +7370,23 @@
         <v>19</v>
       </c>
       <c r="B176" t="str">
-        <f t="shared" si="1"/>
-        <v>['2']</v>
+        <f t="shared" si="2"/>
+        <v>['3']</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D176" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E176" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F176" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G176" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H176">
         <v>7</v>
@@ -7309,23 +7400,23 @@
         <v>20</v>
       </c>
       <c r="B177" t="str">
-        <f t="shared" si="1"/>
-        <v>['3']</v>
+        <f t="shared" si="2"/>
+        <v>['2']</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E177" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F177" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G177" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H177">
         <v>7</v>
@@ -7339,23 +7430,23 @@
         <v>21</v>
       </c>
       <c r="B178" t="str">
-        <f t="shared" si="1"/>
-        <v>['1']</v>
+        <f t="shared" si="2"/>
+        <v>['3']</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D178" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E178" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F178" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G178" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H178">
         <v>7</v>
@@ -7369,23 +7460,23 @@
         <v>22</v>
       </c>
       <c r="B179" t="str">
-        <f t="shared" si="1"/>
-        <v>['3']</v>
+        <f t="shared" si="2"/>
+        <v>['2']</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E179" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F179" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G179" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H179">
         <v>7</v>
@@ -7399,23 +7490,23 @@
         <v>23</v>
       </c>
       <c r="B180" t="str">
-        <f t="shared" si="1"/>
-        <v>['2']</v>
+        <f t="shared" si="2"/>
+        <v>['3']</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D180" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E180" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F180" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G180" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H180">
         <v>7</v>
@@ -7429,23 +7520,23 @@
         <v>24</v>
       </c>
       <c r="B181" t="str">
-        <f t="shared" si="1"/>
-        <v>['1']</v>
+        <f t="shared" si="2"/>
+        <v>['2']</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E181" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F181" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G181" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H181">
         <v>7</v>
@@ -7459,23 +7550,23 @@
         <v>25</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" si="1"/>
-        <v>['2']</v>
+        <f t="shared" si="2"/>
+        <v>['3']</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D182" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E182" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F182" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G182" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H182">
         <v>7</v>
@@ -7486,22 +7577,22 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D183" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E183" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F183" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G183" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H183">
         <v>7</v>
       </c>
       <c r="I183" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -7509,23 +7600,23 @@
         <v>1</v>
       </c>
       <c r="B184" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>['3']</v>
       </c>
       <c r="C184">
         <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E184" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F184" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G184" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H184">
         <v>8</v>
@@ -7539,23 +7630,23 @@
         <v>2</v>
       </c>
       <c r="B185" t="str">
-        <f t="shared" si="1"/>
-        <v>['1']</v>
+        <f t="shared" si="2"/>
+        <v>['2']</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E185" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F185" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G185" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H185">
         <v>8</v>
@@ -7569,23 +7660,23 @@
         <v>3</v>
       </c>
       <c r="B186" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>['3']</v>
       </c>
       <c r="C186">
         <v>3</v>
       </c>
       <c r="D186" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E186" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F186" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G186" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H186">
         <v>8</v>
@@ -7599,23 +7690,23 @@
         <v>4</v>
       </c>
       <c r="B187" t="str">
-        <f t="shared" si="1"/>
-        <v>['1']</v>
+        <f t="shared" si="2"/>
+        <v>['2']</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E187" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F187" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G187" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H187">
         <v>8</v>
@@ -7629,23 +7720,23 @@
         <v>5</v>
       </c>
       <c r="B188" t="str">
-        <f t="shared" si="1"/>
-        <v>['3']</v>
+        <f t="shared" si="2"/>
+        <v>['1']</v>
       </c>
       <c r="C188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E188" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F188" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G188" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H188">
         <v>8</v>
@@ -7659,23 +7750,23 @@
         <v>6</v>
       </c>
       <c r="B189" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>['2']</v>
       </c>
       <c r="C189">
         <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E189" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F189" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G189" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H189">
         <v>8</v>
@@ -7689,23 +7780,23 @@
         <v>7</v>
       </c>
       <c r="B190" t="str">
-        <f t="shared" si="1"/>
-        <v>['3']</v>
+        <f t="shared" si="2"/>
+        <v>['1']</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E190" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F190" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G190" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H190">
         <v>8</v>
@@ -7719,23 +7810,23 @@
         <v>8</v>
       </c>
       <c r="B191" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>['2']</v>
       </c>
       <c r="C191">
         <v>2</v>
       </c>
       <c r="D191" t="s">
+        <v>539</v>
+      </c>
+      <c r="E191" t="s">
         <v>542</v>
       </c>
-      <c r="E191" t="s">
-        <v>545</v>
-      </c>
       <c r="F191" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G191" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H191">
         <v>8</v>
@@ -7749,23 +7840,23 @@
         <v>9</v>
       </c>
       <c r="B192" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>['3']</v>
       </c>
       <c r="C192">
         <v>3</v>
       </c>
       <c r="D192" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E192" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F192" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G192" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H192">
         <v>8</v>
@@ -7779,23 +7870,23 @@
         <v>10</v>
       </c>
       <c r="B193" t="str">
-        <f t="shared" si="1"/>
-        <v>['1']</v>
+        <f t="shared" si="2"/>
+        <v>['2']</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E193" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F193" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G193" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H193">
         <v>8</v>
@@ -7809,23 +7900,23 @@
         <v>11</v>
       </c>
       <c r="B194" t="str">
-        <f t="shared" si="1"/>
-        <v>['2']</v>
+        <f t="shared" si="2"/>
+        <v>['1']</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E194" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F194" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G194" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H194">
         <v>8</v>
@@ -7839,23 +7930,23 @@
         <v>12</v>
       </c>
       <c r="B195" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B195:B208" si="3">"['"&amp;C195&amp;"']"</f>
         <v>['3']</v>
       </c>
       <c r="C195">
         <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E195" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F195" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G195" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H195">
         <v>8</v>
@@ -7869,23 +7960,23 @@
         <v>13</v>
       </c>
       <c r="B196" t="str">
-        <f t="shared" si="1"/>
-        <v>['2']</v>
+        <f t="shared" si="3"/>
+        <v>['1']</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E196" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F196" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G196" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H196">
         <v>8</v>
@@ -7899,23 +7990,23 @@
         <v>14</v>
       </c>
       <c r="B197" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>['3']</v>
       </c>
       <c r="C197">
         <v>3</v>
       </c>
       <c r="D197" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E197" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F197" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G197" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H197">
         <v>8</v>
@@ -7929,23 +8020,23 @@
         <v>15</v>
       </c>
       <c r="B198" t="str">
-        <f t="shared" si="1"/>
-        <v>['2']</v>
+        <f t="shared" si="3"/>
+        <v>['1']</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E198" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F198" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G198" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H198">
         <v>8</v>
@@ -7959,23 +8050,23 @@
         <v>16</v>
       </c>
       <c r="B199" t="str">
-        <f t="shared" si="1"/>
-        <v>['1']</v>
+        <f t="shared" si="3"/>
+        <v>['3']</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D199" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E199" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F199" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G199" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H199">
         <v>8</v>
@@ -7989,23 +8080,23 @@
         <v>17</v>
       </c>
       <c r="B200" t="str">
-        <f t="shared" si="1"/>
-        <v>['2']</v>
+        <f t="shared" si="3"/>
+        <v>['1']</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E200" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F200" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G200" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H200">
         <v>8</v>
@@ -8019,23 +8110,23 @@
         <v>18</v>
       </c>
       <c r="B201" t="str">
-        <f t="shared" si="1"/>
-        <v>['1']</v>
+        <f t="shared" si="3"/>
+        <v>['2']</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E201" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F201" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G201" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H201">
         <v>8</v>
@@ -8049,23 +8140,23 @@
         <v>19</v>
       </c>
       <c r="B202" t="str">
-        <f t="shared" si="1"/>
-        <v>['2']</v>
+        <f t="shared" si="3"/>
+        <v>['1']</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E202" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F202" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G202" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H202">
         <v>8</v>
@@ -8079,23 +8170,23 @@
         <v>20</v>
       </c>
       <c r="B203" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>['3']</v>
       </c>
       <c r="C203">
         <v>3</v>
       </c>
       <c r="D203" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E203" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F203" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G203" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H203">
         <v>8</v>
@@ -8109,23 +8200,23 @@
         <v>21</v>
       </c>
       <c r="B204" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>['2']</v>
       </c>
       <c r="C204">
         <v>2</v>
       </c>
       <c r="D204" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E204" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F204" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G204" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H204">
         <v>8</v>
@@ -8139,23 +8230,23 @@
         <v>22</v>
       </c>
       <c r="B205" t="str">
-        <f t="shared" si="1"/>
-        <v>['1']</v>
+        <f t="shared" si="3"/>
+        <v>['3']</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D205" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E205" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F205" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G205" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H205">
         <v>8</v>
@@ -8169,23 +8260,23 @@
         <v>23</v>
       </c>
       <c r="B206" t="str">
-        <f t="shared" si="1"/>
-        <v>['2']</v>
+        <f t="shared" si="3"/>
+        <v>['1']</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D206" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E206" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F206" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="G206" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H206">
         <v>8</v>
@@ -8199,23 +8290,23 @@
         <v>24</v>
       </c>
       <c r="B207" t="str">
-        <f t="shared" si="1"/>
-        <v>['1']</v>
+        <f t="shared" si="3"/>
+        <v>['2']</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D207" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E207" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F207" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G207" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H207">
         <v>8</v>
@@ -8229,23 +8320,23 @@
         <v>25</v>
       </c>
       <c r="B208" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>['3']</v>
       </c>
       <c r="C208">
         <v>3</v>
       </c>
       <c r="D208" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E208" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F208" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G208" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H208">
         <v>8</v>
@@ -8256,22 +8347,22 @@
     </row>
     <row r="209" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D209" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E209" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F209" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G209" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H209">
         <v>8</v>
       </c>
       <c r="I209" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
